--- a/visto.xlsx
+++ b/visto.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="375" yWindow="495" windowWidth="28035" windowHeight="16260" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="CU18-2021 _ 2022-MOD10-LICENZA-" sheetId="1" state="visible" r:id="rId1"/>
@@ -932,7 +932,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -946,26 +946,26 @@
   </sheetPr>
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="25.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="25.5" customHeight="1"/>
   <cols>
-    <col width="12.375" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="18.125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="13.625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="22.625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="5.375" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="14.375" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="15.375" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="11.875" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="14.375" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="24.125" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="12.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.83203125" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="18.1640625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22.6640625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="5.33203125" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="14.33203125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="15.33203125" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="11.83203125" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="14.33203125" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="24.1640625" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="5" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="8.625" customWidth="1" min="16" max="16"/>
+    <col width="8.6640625" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -1092,7 +1092,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J2" s="1" t="n"/>
+      <c r="J2" s="1" t="inlineStr"/>
       <c r="K2" s="2" t="n">
         <v>3471491287</v>
       </c>
@@ -1162,7 +1162,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J3" s="1" t="n"/>
+      <c r="J3" s="1" t="inlineStr"/>
       <c r="K3" s="2" t="n">
         <v>3334134049</v>
       </c>
@@ -1232,7 +1232,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J4" s="1" t="n"/>
+      <c r="J4" s="1" t="inlineStr"/>
       <c r="K4" s="2" t="n">
         <v>3487787447</v>
       </c>
@@ -1302,7 +1302,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J5" s="1" t="n"/>
+      <c r="J5" s="1" t="inlineStr"/>
       <c r="K5" s="2" t="n">
         <v>3490889251</v>
       </c>
@@ -1372,7 +1372,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J6" s="1" t="n"/>
+      <c r="J6" s="1" t="inlineStr"/>
       <c r="K6" s="2" t="n">
         <v>3407714062</v>
       </c>
@@ -1442,7 +1442,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J7" s="1" t="n"/>
+      <c r="J7" s="1" t="inlineStr"/>
       <c r="K7" s="2" t="n">
         <v>3497145869</v>
       </c>
@@ -1512,7 +1512,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J8" s="1" t="n"/>
+      <c r="J8" s="1" t="inlineStr"/>
       <c r="K8" s="2" t="n">
         <v>3467246339</v>
       </c>
@@ -1582,7 +1582,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J9" s="1" t="n"/>
+      <c r="J9" s="1" t="inlineStr"/>
       <c r="K9" s="2" t="n">
         <v>3495594841</v>
       </c>
@@ -1652,7 +1652,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J10" s="1" t="n"/>
+      <c r="J10" s="1" t="inlineStr"/>
       <c r="K10" s="2" t="n">
         <v>3348014394</v>
       </c>
@@ -1722,7 +1722,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J11" s="1" t="n"/>
+      <c r="J11" s="1" t="inlineStr"/>
       <c r="K11" s="2" t="n">
         <v>3491845047</v>
       </c>
@@ -1792,7 +1792,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J12" s="1" t="n"/>
+      <c r="J12" s="1" t="inlineStr"/>
       <c r="K12" s="2" t="n">
         <v>3479770810</v>
       </c>
@@ -1862,7 +1862,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J13" s="1" t="n"/>
+      <c r="J13" s="1" t="inlineStr"/>
       <c r="K13" s="2" t="n">
         <v>3494751216</v>
       </c>
@@ -1932,7 +1932,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J14" s="1" t="n"/>
+      <c r="J14" s="1" t="inlineStr"/>
       <c r="K14" s="2" t="n">
         <v>3494407445</v>
       </c>
@@ -2002,7 +2002,7 @@
           <t>LC</t>
         </is>
       </c>
-      <c r="J15" s="1" t="n"/>
+      <c r="J15" s="1" t="inlineStr"/>
       <c r="K15" s="2" t="n">
         <v>3358441657</v>
       </c>
@@ -2072,7 +2072,7 @@
           <t>LC</t>
         </is>
       </c>
-      <c r="J16" s="1" t="n"/>
+      <c r="J16" s="1" t="inlineStr"/>
       <c r="K16" s="2" t="n">
         <v>3207262427</v>
       </c>
@@ -2142,7 +2142,7 @@
           <t>LC</t>
         </is>
       </c>
-      <c r="J17" s="1" t="n"/>
+      <c r="J17" s="1" t="inlineStr"/>
       <c r="K17" s="2" t="n">
         <v>3338321542</v>
       </c>
@@ -2212,7 +2212,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J18" s="1" t="n"/>
+      <c r="J18" s="1" t="inlineStr"/>
       <c r="K18" s="2" t="n">
         <v>3358499078</v>
       </c>
@@ -2282,7 +2282,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J19" s="1" t="n"/>
+      <c r="J19" s="1" t="inlineStr"/>
       <c r="K19" s="2" t="n">
         <v>3406623270</v>
       </c>
@@ -2352,7 +2352,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J20" s="1" t="n"/>
+      <c r="J20" s="1" t="inlineStr"/>
       <c r="K20" s="2" t="n">
         <v>3429884128</v>
       </c>
@@ -2422,7 +2422,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J21" s="1" t="n"/>
+      <c r="J21" s="1" t="inlineStr"/>
       <c r="K21" s="2" t="n">
         <v>3496096804</v>
       </c>
@@ -2492,7 +2492,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J22" s="1" t="n"/>
+      <c r="J22" s="1" t="inlineStr"/>
       <c r="K22" s="2" t="n">
         <v>3460914750</v>
       </c>
@@ -2562,7 +2562,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J23" s="1" t="n"/>
+      <c r="J23" s="1" t="inlineStr"/>
       <c r="K23" s="2" t="n">
         <v>3663405156</v>
       </c>
@@ -2632,7 +2632,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J24" s="1" t="n"/>
+      <c r="J24" s="1" t="inlineStr"/>
       <c r="K24" s="2" t="n">
         <v>3930142420</v>
       </c>
@@ -2702,7 +2702,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J25" s="1" t="n"/>
+      <c r="J25" s="1" t="inlineStr"/>
       <c r="K25" s="2" t="n">
         <v>3481821308</v>
       </c>
@@ -2772,7 +2772,7 @@
           <t>LC</t>
         </is>
       </c>
-      <c r="J26" s="1" t="n"/>
+      <c r="J26" s="1" t="inlineStr"/>
       <c r="K26" s="2" t="n">
         <v>3392722625</v>
       </c>
@@ -2842,7 +2842,7 @@
           <t>LC</t>
         </is>
       </c>
-      <c r="J27" s="1" t="n"/>
+      <c r="J27" s="1" t="inlineStr"/>
       <c r="K27" s="2" t="n">
         <v>3395803401</v>
       </c>
@@ -2912,7 +2912,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J28" s="1" t="n"/>
+      <c r="J28" s="1" t="inlineStr"/>
       <c r="K28" s="2" t="n">
         <v>3923189859</v>
       </c>
@@ -2982,7 +2982,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J29" s="1" t="n"/>
+      <c r="J29" s="1" t="inlineStr"/>
       <c r="K29" s="2" t="n">
         <v>3339599723</v>
       </c>
@@ -3052,7 +3052,7 @@
           <t>LC</t>
         </is>
       </c>
-      <c r="J30" s="1" t="n"/>
+      <c r="J30" s="1" t="inlineStr"/>
       <c r="K30" s="2" t="n">
         <v>3319503518</v>
       </c>
@@ -3122,7 +3122,7 @@
           <t>CS</t>
         </is>
       </c>
-      <c r="J31" s="1" t="n"/>
+      <c r="J31" s="1" t="inlineStr"/>
       <c r="K31" s="2" t="n">
         <v>3479164689</v>
       </c>
@@ -3192,7 +3192,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J32" s="1" t="n"/>
+      <c r="J32" s="1" t="inlineStr"/>
       <c r="K32" s="2" t="n">
         <v>3494628555</v>
       </c>
@@ -3262,7 +3262,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J33" s="1" t="n"/>
+      <c r="J33" s="1" t="inlineStr"/>
       <c r="K33" s="2" t="n">
         <v>3476014761</v>
       </c>
@@ -3332,7 +3332,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J34" s="1" t="n"/>
+      <c r="J34" s="1" t="inlineStr"/>
       <c r="K34" s="2" t="n">
         <v>3315497420</v>
       </c>
@@ -3402,7 +3402,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J35" s="1" t="n"/>
+      <c r="J35" s="1" t="inlineStr"/>
       <c r="K35" s="2" t="n">
         <v>3341342759</v>
       </c>
@@ -3472,7 +3472,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J36" s="1" t="n"/>
+      <c r="J36" s="1" t="inlineStr"/>
       <c r="K36" s="2" t="n">
         <v>3803138450</v>
       </c>
@@ -3542,7 +3542,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J37" s="1" t="n"/>
+      <c r="J37" s="1" t="inlineStr"/>
       <c r="K37" s="2" t="n">
         <v>3471214818</v>
       </c>
@@ -3612,7 +3612,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J38" s="1" t="n"/>
+      <c r="J38" s="1" t="inlineStr"/>
       <c r="K38" s="2" t="n">
         <v>3384260327</v>
       </c>
@@ -3682,7 +3682,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J39" s="1" t="n"/>
+      <c r="J39" s="1" t="inlineStr"/>
       <c r="K39" s="2" t="n">
         <v>3383393335</v>
       </c>
@@ -3752,7 +3752,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J40" s="1" t="n"/>
+      <c r="J40" s="1" t="inlineStr"/>
       <c r="K40" s="2" t="n">
         <v>3384236166</v>
       </c>
@@ -3822,7 +3822,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J41" s="1" t="n"/>
+      <c r="J41" s="1" t="inlineStr"/>
       <c r="K41" s="2" t="n">
         <v>3384281701</v>
       </c>
@@ -3892,7 +3892,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J42" s="1" t="n"/>
+      <c r="J42" s="1" t="inlineStr"/>
       <c r="K42" s="2" t="n">
         <v>3470310570</v>
       </c>
@@ -3923,7 +3923,7 @@
     <row r="43" ht="25.5" customHeight="1">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>ZAPPALA'</t>
+          <t>ZAPPALA</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -3962,7 +3962,7 @@
           <t>MB</t>
         </is>
       </c>
-      <c r="J43" s="1" t="n"/>
+      <c r="J43" s="1" t="inlineStr"/>
       <c r="K43" s="2" t="n">
         <v>3349033302</v>
       </c>
